--- a/诊所相关文档/中间过程文档/小组讨论记录汇总.xlsx
+++ b/诊所相关文档/中间过程文档/小组讨论记录汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\验收文档(1)\验收文档\意见以及修改情况\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshihiko\Desktop\验收文档（最新）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,6 +311,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -321,9 +324,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -636,13 +636,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>44235</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -650,21 +650,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>44265</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -672,21 +672,21 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>44271</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -694,9 +694,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -716,13 +716,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>44288</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -730,25 +730,25 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
@@ -866,13 +866,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>44502</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -880,21 +880,24 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="16">
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
@@ -904,6 +907,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
